--- a/Timetable 1.xlsx
+++ b/Timetable 1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Projekttidslinje" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Projekttidslinje!$A$1:$N$17</definedName>
     <definedName name="ProjektAfslutning">Projekttidslinje!$L$21</definedName>
     <definedName name="Projektstart">Projekttidslinje!$L$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Projekttidslinje!$A$1:$N$17</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -256,11 +256,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -332,9 +332,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -396,7 +396,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -404,9 +407,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -425,7 +425,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -433,9 +436,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -454,7 +454,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -462,9 +465,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -483,7 +483,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -491,9 +494,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -512,7 +512,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -520,9 +523,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -541,7 +541,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -549,9 +552,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -570,7 +570,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -578,9 +581,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -599,7 +599,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -607,9 +610,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -628,7 +628,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -636,9 +639,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -657,7 +657,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -665,9 +668,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -686,7 +686,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -694,9 +697,6 @@
                       <c:h val="4.7831682330031315E-2"/>
                     </c:manualLayout>
                   </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -716,9 +716,9 @@
                     <a:fld id="{4FF1FF64-80D9-4912-8436-88DFC248850D}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" sz="800" spc="-50" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[CATEGORY NAME]</a:t>
+                      <a:t>[KATEGORINAVN]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="nb-NO"/>
+                    <a:endParaRPr lang="da-DK"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -729,7 +729,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst>
+              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-74AE-4890-BFC1-74BCB15C4EBB}"/>
+                </c:ext>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
@@ -739,9 +742,6 @@
                   </c15:layout>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-74AE-4890-BFC1-74BCB15C4EBB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -767,7 +767,7 @@
                     </a:solidFill>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="nb-NO"/>
+                <a:endParaRPr lang="da-DK"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -778,13 +778,14 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
                 </c15:spPr>
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -867,10 +868,10 @@
                   <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-15</c:v>
@@ -899,7 +900,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-74AE-4890-BFC1-74BCB15C4EBB}"/>
             </c:ext>
@@ -914,8 +915,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-320836736"/>
-        <c:axId val="-320837280"/>
+        <c:axId val="844550784"/>
+        <c:axId val="844550240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -966,40 +967,40 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>01.02.2016</c:v>
+                  <c:v>01-02-2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.02.2016</c:v>
+                  <c:v>14-02-2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.02.2016</c:v>
+                  <c:v>21-02-2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>01.03.2016</c:v>
+                  <c:v>01-03-2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>03.03.2016</c:v>
+                  <c:v>03-03-2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.03.2016</c:v>
+                  <c:v>10-03-2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.03.2016</c:v>
+                  <c:v>17-03-2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.03.2016</c:v>
+                  <c:v>28-03-2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.04.2016</c:v>
+                  <c:v>24-04-2016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.05.2016</c:v>
+                  <c:v>15-05-2016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.05.2016</c:v>
+                  <c:v>22-05-2016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.05.2016</c:v>
+                  <c:v>23-05-2016</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>31.06.2016</c:v>
@@ -1056,7 +1057,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-74AE-4890-BFC1-74BCB15C4EBB}"/>
             </c:ext>
@@ -1072,11 +1073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-320842176"/>
-        <c:axId val="-320838368"/>
+        <c:axId val="844563296"/>
+        <c:axId val="844564928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-320842176"/>
+        <c:axId val="844563296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,10 +1114,10 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nb-NO"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320838368"/>
+        <c:crossAx val="844564928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1127,7 +1128,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-320838368"/>
+        <c:axId val="844564928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,12 +1138,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-320842176"/>
+        <c:crossAx val="844563296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-320837280"/>
+        <c:axId val="844550240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,12 +1153,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-320836736"/>
+        <c:crossAx val="844550784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-320836736"/>
+        <c:axId val="844550784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-320837280"/>
+        <c:crossAx val="844550240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1219,7 @@
         <xdr:cNvPr id="11" name="Projekttidslinje" descr="Kurvediagram, der plotter hvert projekt på den tilhørende tidsramme." title="Projekttidslinje">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1255,7 @@
         <xdr:cNvPr id="3" name="Tip for tidslinje" descr="Positionsværdierne i projektoplysningstabellen bruges til at forhindre, at milepælsnavne overlapper hinanden på tidslinjen. Brug positiv tale til at placere navne oven over tidslinjen og negative tal til at placere dem nedenunder.&#10;To add additional Milestones, either insert new rows within the table or start typing below the last table entry and the table will automatically expand to accommodate your newly added data.  " title="Tip til projekttidslinje:">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,25 +1707,25 @@
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="14" t="s">
         <v>20</v>
@@ -1742,7 +1743,7 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1760,46 +1761,46 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="I14" s="2"/>
       <c r="K14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="I15" s="2"/>
       <c r="K15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>0</v>
       </c>
@@ -1809,13 +1810,13 @@
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I17" s="2"/>
       <c r="K17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>5</v>
       </c>
@@ -1826,7 +1827,7 @@
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1846,7 @@
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>42401</v>
       </c>
@@ -1864,7 +1865,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>42414</v>
       </c>
@@ -1884,7 +1885,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
         <v>42421</v>
       </c>
@@ -1903,7 +1904,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
         <v>42430</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <f>1</f>
@@ -1922,7 +1923,7 @@
       <c r="M23" s="2"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
         <v>42432</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" s="5">
         <f>1</f>
@@ -1941,7 +1942,7 @@
       <c r="M24" s="2"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
         <v>42439</v>
       </c>
@@ -1960,7 +1961,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
         <v>42446</v>
       </c>
@@ -1979,7 +1980,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <v>42457</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
         <v>42484</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
         <v>42505</v>
       </c>
@@ -2025,7 +2026,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
         <v>42512</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15">
         <v>42513</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
         <v>6</v>
       </c>
